--- a/feature_selection_feat/poisson1d_data.xlsx
+++ b/feature_selection_feat/poisson1d_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\repos\bandgap\feature_selection_feat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425AC8D-B15A-43C0-BE42-BFFA98E1CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8A630-0BBF-4408-9FB5-A31671F8C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{7B14FB1F-A829-43E6-BEE2-0F81D2E952DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B14FB1F-A829-43E6-BEE2-0F81D2E952DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,25 +35,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>u</t>
   </si>
+  <si>
+    <t>best guess</t>
+  </si>
+  <si>
+    <t>-3*sin(1.8274*pi/2)</t>
+  </si>
+  <si>
+    <t>plot this function compared to the true solution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,11 +90,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +112,4024 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poisson 1D verification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best guess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8272982949869315E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6539864006504469E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4794543314275197E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3030925092078564E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1242919668901884E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10942444551734515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12756943128442427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14567181781897659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1637255601949919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1817246297301934</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19966301599919398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21753472884055663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23533380035708756</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25305428690869469</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27069027109714638</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28823586374206678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30568520584750852</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32303247055844592</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34027186510653579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35739763274449476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37440405466844895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39128545192761305</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40803618732066083</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42465066727815465</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44112334373040502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.4574487159601362</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.47362133243933935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48963579264970053</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5054867488859941</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52116890804184146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.53667703337723593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55200594626724719</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56715052793131771</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5821057211425763</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59686653191659678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61142803117903821</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62578535641160937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63993371327580861</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65386837721389601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66758469502656437</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68107808642678069</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69434404556928064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.70737814255520437</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.72017602491137178</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.73273341904370248</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7450461316642969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75711005119169961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76892114912387866</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78047548138346268</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79176918963478571</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80279850257230023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81355973717992858</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.82404929996093179</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83426368813788476</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.84419949082235868</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85385339015391737</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.8632221624080505</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.87230267907267067</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88109190789281733</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.88958691388321609</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.8977848603083588</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.90568300962977322</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.91327872442016933</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.92056946824415387</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.92755280650522287</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93422640725874495</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.9405880419906677</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.94663558636168432</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.95236702091661452</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95778043175876015</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.9628740111890125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.9676460583094969</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.97209497959155322</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.97621928940786229</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98001761052854175</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98348867458104317</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98663132247370011</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98944450478278345</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99192728210293457</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99407882536086134</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9958984160921901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99738544668138263</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99853942056463674</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99935995239570363</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99984676817456708</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99999970533893956</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99981871281854684</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99930385105218211</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99845529196752336</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99727331892372173</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99575832661677932</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99391082094774885</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99173141885379767</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98922084810219446</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98637994704728593</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98320966435054524</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97971105866378605</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97588529827564652</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.97173366072146361</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.96725753235666545</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.96245840789382631</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.95733788990353763</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.95189768827926124</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.9461396196663463</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.94006560685539575</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.93367767814019065</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.92697796664038179</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.91996870958917742</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.91265224758626484</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.90503102381621403</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.89710758323262629</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.88888457170829738</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.88036473515168268</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.87155091858995559</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.86244606521897005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.85305321542043755</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.84337550574665487</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83341616787311434</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.82317852751935328</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.81266600333839456</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.80188210577515862</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.79083043589421997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.77951468417730618</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.76793862929093404</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.75610613682460126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.74402115799995217</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.73168772835134477</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.7191099663782673</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.70629207217004764</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.69323832600332014</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.67995308691271128</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.66644079123522981</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.65270595112884111</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.63875315306572411</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.62458705630071043</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.61021239131542093</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.59563395823861676</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.58085662524329529</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.56588532692105808</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.55072506263430809</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.53538089484681084</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.51985794743318903</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.50416140396790621</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.48829650599431818</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.47226855127436462</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.45608289201949054</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.43974493310338086</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.42326013025711373</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.40663398824732866</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.38987205903802252</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.37297993993658124</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.35596327172467301</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.3388277367746248</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.32157905715190643</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.30422299270436415</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.28676533913883501</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.26921192608578953</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.25156861515264173</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.23384129796638592</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.21603589420620556</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.19815834962671833</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.18021463407250868</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.16221073948462114</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.14415267789967021</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.12604647944224656</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.10789819031127451</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.9713870761008355E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.149959307733196E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.3261439550043581E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.5005500441795408E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.673787195437525E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.5353458069976564E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.9808050870677711E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-3.8074141436225672E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-5.6327517911979784E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-7.4562084951891983E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-9.2771753490943701E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.1109504427784687</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.12909208240869549</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.14719061434783526</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.1652399949570425</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.18323419701056418</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.20116721170841081</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.21903305068287207</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.23682574799821365</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.2545393621428792</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.27216797801353881</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.2897057088903161</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.30714669840254344</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.32448512248437461</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.34171519131961586</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.3588311512751165</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.37582728682208033</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.39269792244464957</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.40943742453512938</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.42604020327521575</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.44250071450260436</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.45881346156235053</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.47497299714236607</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.49097392509243803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9661-48FF-B516-67238A579E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-3 * best guess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.4818948849607946E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.10961959201951341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1643836299428256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.21909277527623569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27372875900670568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.32827333655203544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38270829385327282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.43701545345692977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.49117668058497571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.54517388919058019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5989890479975819</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.65260418652166985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.70600140107126275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.75916286072608408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.81207081329143915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.86470759122620033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.91705561754252551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.96909741167533769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0208155953196074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0721928982334843</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.1232121640053467</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1738563557828392</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2241085619619825</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2739520018344639</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3233700311912151</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3723461478804087</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4208639973180182</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.4689073779491015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.5164602466579824</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.5635067241255243</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.6100311001317078</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.6560178388017417</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7014515837939532</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.746317163427729</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7905995957497902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.8342840935371147</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.8773560692348281</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.9198011398274257</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.961605131641688</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.002754085079693</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0432342592803421</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.0830321367078417</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.1221344276656131</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.1605280747341151</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.1982002571311074</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.2351383949928909</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.2713301535750987</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.3067634473716359</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.3414264441503878</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.3753075689043572</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.4083955077169006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.440679211539786</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.4721478998827955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.5027910644136542</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.5325984724670763</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5615601704617523</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5896664872241515</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.6169080372180122</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.6432757236784519</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.6687607416496482</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.6933545809250763</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.7170490288893197</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.7398361732605081</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.7617084047324614</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.7826584195156685</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.8026792217762351</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.821764125972003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.8399067590850531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.8571010627498437</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.8733412952762807</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.8886220335670374</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.9029381749284906</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.9162849387746599</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.9286578682235866</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.9400528315856254</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.9504660237431297</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.9598939674211002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.9683335143483505</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.9757818463088039</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.9822364760825839</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.9876952482765704</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.992156340044148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.9956182616939104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.9980798571871108</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.999540304523701</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.9999991160168187</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.9994561384556406</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.9979115531565466</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.9953658759025701</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.991819956771165</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.987274979850338</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.9817324628432464</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.9751942565613931</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.9676625443065836</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.9591398411418579</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.9496289930516357</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.9391331759913584</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.9276558948269393</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.9152009821643907</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.9017725970699964</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.8873752236814791</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.8720136697106131</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.8556930648377836</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.8384188589990389</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.8201968205661871</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.8010330344205721</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.7809338999211453</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.7599061287675322</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.7379567427587945</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.7150930714486421</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-2.6913227496978789</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.6666537151248919</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.6410942054550479</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.6146527557698667</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.5873381956569101</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.5591596462613126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.5301265172399647</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.5002485036193431</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.46953558255806</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.4379980100151837</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.4056463173254761</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.3724913076826599</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.3385440525319185</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.3038158878728021</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.2683184104738037</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.2320634739998564</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.1950631850540345</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.157329899134802</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.1188762165101429</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.0797149780099602</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.0398592607381341</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.9993223737056893</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.9581178533865233</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.9162594591971724</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.8737611689021314</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.8306371739462628</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.7869018747158503</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.742569875729886</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.6976559807631744</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.6521751879029243</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1.6061426845404325</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.5595738422995671</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-1.5124842119037187</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-1.4648895179829546</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.416805653823094</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.3682486760584716</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-1.3192347993101425</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.2697803907713412</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.219901964741986</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.1696161771140676</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.1189398198097438</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.067889815174019</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.0164832103238743</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.96473717145571936</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.91266897811309244</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.86029601741650508</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.80763577825736865</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.75470584545792518</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.7015238938991577</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.64810768261861673</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.59447504888015501</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.54064390221752601</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.4866322184538634</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.43245803369901059</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.37813943832673969</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.32369457093382353</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.26914161228302508</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.2144987792319959</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.15978431865013074</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.10501650132538623</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-5.0213615863125755E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.6060374209929691E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.9424152612033133E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.11422242430867702</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.16898255373593934</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.22368625485567595</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.27831526047283112</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.33285132833540609</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.38727624722608645</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.44157184304350577</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.49571998487112751</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.5497025910316925</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.60350163512523247</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.65709915204861624</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.71047724399464096</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.7636180864286376</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.81650393404061639</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.86911712667094831</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.92144009520763026</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.97345536745312389</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.0251455739588475</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.0764934538253494</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.1274818604662409</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.1780937673339487</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.2283122736053882</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.2781206098256472</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.3275021435078131</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.3764403846870517</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.4249189914270981</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.472921775277314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9661-48FF-B516-67238A579E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>True Function</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1410759078128292E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2790519529313374E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4108313318514311E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12533323356430426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15643446504023087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1873813145857246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21814324139654256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24868988716485479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27899110603922928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3090169943749474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33873792024529137</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36812455268467792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39714789063478062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42577929156507272</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45399049973954675</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48175367410171532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50904141575037132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53582679497899666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56208337785213058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58778525229247314</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61290705365297637</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63742398974868963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66131186532365183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68454710592868862</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72896862742141155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75011106963045959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77051324277578925</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7901550123756903</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82708057427456183</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84432792550201508</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86074202700394364</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.87630668004386369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.89100652418836779</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90482705246601958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91775462568398114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92977648588825135</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.94088076895422545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95105651629515353</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.96029368567694295</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.96858316112863108</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97591676193874732</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98228725072868861</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98768834059513777</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99556196460308</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99802672842827156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9995065603657316</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9995065603657316</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99802672842827156</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99556196460308</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99211470131447776</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98768834059513766</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98228725072868861</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97591676193874743</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.96858316112863119</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96029368567694307</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95105651629515364</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94088076895422545</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92977648588825135</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.91775462568398125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.90482705246601947</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.8910065241883679</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.87630668004386347</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.86074202700394364</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.84432792550201496</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82708057427456205</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.80901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.79015501237569052</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77051324277578925</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.7501110696304597</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.72896862742141144</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.68454710592868884</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66131186532365183</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.63742398974868986</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.61290705365297637</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.58778525229247325</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.56208337785213047</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53582679497899699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.50904141575037143</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4817536741017156</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.45399049973954686</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42577929156507288</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.39714789063478062</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.36812455268467814</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.33873792024529131</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.30901699437494751</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.27899110603922911</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.24868988716485482</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.21814324139654231</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.18738131458572502</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15643446504023098</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.12533323356430454</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.4108313318514353E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.2790519529313582E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1410759078128236E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.1410759078127994E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-6.2790519529313346E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-9.4108313318514103E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.12533323356430429</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.15643446504023073</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.18738131458572477</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.21814324139654251</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.24868988716485502</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.27899110603922928</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.30901699437494773</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.33873792024529148</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.36812455268467831</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.39714789063478001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.42577929156507227</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.45399049973954625</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.48175367410171499</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.50904141575037087</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.53582679497899643</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.56208337785213025</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.58778525229247303</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.61290705365297626</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.63742398974868963</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.66131186532365172</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.68454710592868873</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.72896862742141133</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.75011106963045948</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.77051324277578936</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.79015501237569041</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.80901699437494734</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.82708057427456161</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.8443279255020153</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.86074202700394375</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.87630668004386358</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.89100652418836779</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.9048270524660198</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.91775462568398125</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.92977648588825113</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.94088076895422512</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.95105651629515353</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.96029368567694295</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.96858316112863097</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.97591676193874721</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.98228725072868872</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.98768834059513766</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.99211470131447776</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.99556196460308</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.99802672842827156</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.9995065603657316</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.9995065603657316</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.99802672842827156</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.99556196460308</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.99211470131447788</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.98768834059513777</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.98228725072868872</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.97591676193874732</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.96858316112863108</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.96029368567694307</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.95105651629515364</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.94088076895422534</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.92977648588825124</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.91775462568398147</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.90482705246601991</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.8910065241883679</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.87630668004386381</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.86074202700394398</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.84432792550201552</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.82708057427456183</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.80901699437494756</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.79015501237569064</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.77051324277578959</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.75011106963045948</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.72896862742141155</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.70710678118654768</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.68454710592868895</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.66131186532365227</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.63742398974868963</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.61290705365297649</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.58778525229247336</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.56208337785213092</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.53582679497899632</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.50904141575037121</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.48175367410171532</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.45399049973954697</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.42577929156507222</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.39714789063478034</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.3681245526846787</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.33873792024529226</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.30901699437494762</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.27899110603922966</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.24868988716485535</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.21814324139654331</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.18738131458572468</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.15643446504023112</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.12533323356430465</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-9.4108313318514908E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-6.2790519529313263E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-3.1410759078128361E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9661-48FF-B516-67238A579E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1848671423"/>
+        <c:axId val="1848673087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1848671423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848673087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848673087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848671423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609E49B6-9421-45C1-83AA-8195AE616F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,23 +4429,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD1CDF-0176-447B-BDEF-F6B18A24DB96}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <f>"-3 * best guess"</f>
+        <v>-3 * best guess</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -419,8 +4463,16 @@
         <f>SIN(PI()*A2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>SIN(1.8274*A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>-3*SIN(1.8274*A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -428,8 +4480,19 @@
         <f t="shared" ref="B3:B66" si="0">SIN(PI()*A3)</f>
         <v>3.1410759078128292E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">SIN(1.8274*A3)</f>
+        <v>1.8272982949869315E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">-3*SIN(1.8274*A3)</f>
+        <v>-5.4818948849607946E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.02</v>
       </c>
@@ -437,8 +4500,19 @@
         <f t="shared" si="0"/>
         <v>6.2790519529313374E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3.6539864006504469E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-0.10961959201951341</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.03</v>
       </c>
@@ -446,8 +4520,16 @@
         <f t="shared" si="0"/>
         <v>9.4108313318514311E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.4794543314275197E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-0.1643836299428256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.04</v>
       </c>
@@ -455,8 +4537,16 @@
         <f t="shared" si="0"/>
         <v>0.12533323356430426</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>7.3030925092078564E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>-0.21909277527623569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.05</v>
       </c>
@@ -464,8 +4554,16 @@
         <f t="shared" si="0"/>
         <v>0.15643446504023087</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>9.1242919668901884E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-0.27372875900670568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.06</v>
       </c>
@@ -473,8 +4571,16 @@
         <f t="shared" si="0"/>
         <v>0.1873813145857246</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.10942444551734515</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-0.32827333655203544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -482,8 +4588,16 @@
         <f t="shared" si="0"/>
         <v>0.21814324139654256</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.12756943128442427</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-0.38270829385327282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.08</v>
       </c>
@@ -491,8 +4605,16 @@
         <f t="shared" si="0"/>
         <v>0.24868988716485479</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.14567181781897659</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>-0.43701545345692977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.09</v>
       </c>
@@ -500,8 +4622,16 @@
         <f t="shared" si="0"/>
         <v>0.27899110603922928</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.1637255601949919</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>-0.49117668058497571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -509,8 +4639,16 @@
         <f t="shared" si="0"/>
         <v>0.3090169943749474</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.1817246297301934</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>-0.54517388919058019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.11</v>
       </c>
@@ -518,8 +4656,16 @@
         <f t="shared" si="0"/>
         <v>0.33873792024529137</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.19966301599919398</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>-0.5989890479975819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.12</v>
       </c>
@@ -527,8 +4673,16 @@
         <f t="shared" si="0"/>
         <v>0.36812455268467792</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.21753472884055663</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>-0.65260418652166985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.13</v>
       </c>
@@ -536,8 +4690,16 @@
         <f t="shared" si="0"/>
         <v>0.39714789063478062</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.23533380035708756</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>-0.70600140107126275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.14000000000000001</v>
       </c>
@@ -545,8 +4707,16 @@
         <f t="shared" si="0"/>
         <v>0.42577929156507272</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.25305428690869469</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>-0.75916286072608408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.15</v>
       </c>
@@ -554,8 +4724,16 @@
         <f t="shared" si="0"/>
         <v>0.45399049973954675</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.27069027109714638</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>-0.81207081329143915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.16</v>
       </c>
@@ -563,8 +4741,16 @@
         <f t="shared" si="0"/>
         <v>0.48175367410171532</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.28823586374206678</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>-0.86470759122620033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.17</v>
       </c>
@@ -572,8 +4758,16 @@
         <f t="shared" si="0"/>
         <v>0.50904141575037132</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.30568520584750852</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-0.91705561754252551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.18</v>
       </c>
@@ -581,8 +4775,16 @@
         <f t="shared" si="0"/>
         <v>0.53582679497899666</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.32303247055844592</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>-0.96909741167533769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.19</v>
       </c>
@@ -590,8 +4792,16 @@
         <f t="shared" si="0"/>
         <v>0.56208337785213058</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.34027186510653579</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>-1.0208155953196074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -599,8 +4809,16 @@
         <f t="shared" si="0"/>
         <v>0.58778525229247314</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.35739763274449476</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>-1.0721928982334843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.21</v>
       </c>
@@ -608,8 +4826,16 @@
         <f t="shared" si="0"/>
         <v>0.61290705365297637</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.37440405466844895</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>-1.1232121640053467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.22</v>
       </c>
@@ -617,8 +4843,16 @@
         <f t="shared" si="0"/>
         <v>0.63742398974868963</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.39128545192761305</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>-1.1738563557828392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.23</v>
       </c>
@@ -626,8 +4860,16 @@
         <f t="shared" si="0"/>
         <v>0.66131186532365183</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.40803618732066083</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>-1.2241085619619825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.24</v>
       </c>
@@ -635,8 +4877,16 @@
         <f t="shared" si="0"/>
         <v>0.68454710592868862</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.42465066727815465</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>-1.2739520018344639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.25</v>
       </c>
@@ -644,8 +4894,16 @@
         <f t="shared" si="0"/>
         <v>0.70710678118654746</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.44112334373040502</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>-1.3233700311912151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.26</v>
       </c>
@@ -653,8 +4911,16 @@
         <f t="shared" si="0"/>
         <v>0.72896862742141155</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.4574487159601362</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>-1.3723461478804087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.27</v>
       </c>
@@ -662,8 +4928,16 @@
         <f t="shared" si="0"/>
         <v>0.75011106963045959</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.47362133243933935</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>-1.4208639973180182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28000000000000003</v>
       </c>
@@ -671,8 +4945,16 @@
         <f t="shared" si="0"/>
         <v>0.77051324277578925</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.48963579264970053</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>-1.4689073779491015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.28999999999999998</v>
       </c>
@@ -680,8 +4962,16 @@
         <f t="shared" si="0"/>
         <v>0.7901550123756903</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.5054867488859941</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>-1.5164602466579824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.3</v>
       </c>
@@ -689,8 +4979,16 @@
         <f t="shared" si="0"/>
         <v>0.80901699437494745</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.52116890804184146</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>-1.5635067241255243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.31</v>
       </c>
@@ -698,8 +4996,16 @@
         <f t="shared" si="0"/>
         <v>0.82708057427456183</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.53667703337723593</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>-1.6100311001317078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.32</v>
       </c>
@@ -707,8 +5013,16 @@
         <f t="shared" si="0"/>
         <v>0.84432792550201508</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.55200594626724719</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>-1.6560178388017417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.33</v>
       </c>
@@ -716,8 +5030,16 @@
         <f t="shared" si="0"/>
         <v>0.86074202700394364</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.56715052793131771</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>-1.7014515837939532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.34</v>
       </c>
@@ -725,8 +5047,16 @@
         <f t="shared" si="0"/>
         <v>0.87630668004386369</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.5821057211425763</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>-1.746317163427729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.35</v>
       </c>
@@ -734,8 +5064,16 @@
         <f t="shared" si="0"/>
         <v>0.89100652418836779</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.59686653191659678</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-1.7905995957497902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.36</v>
       </c>
@@ -743,8 +5081,16 @@
         <f t="shared" si="0"/>
         <v>0.90482705246601958</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.61142803117903821</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>-1.8342840935371147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.37</v>
       </c>
@@ -752,8 +5098,16 @@
         <f t="shared" si="0"/>
         <v>0.91775462568398114</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.62578535641160937</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>-1.8773560692348281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.38</v>
       </c>
@@ -761,8 +5115,16 @@
         <f t="shared" si="0"/>
         <v>0.92977648588825135</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.63993371327580861</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>-1.9198011398274257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.39</v>
       </c>
@@ -770,8 +5132,16 @@
         <f t="shared" si="0"/>
         <v>0.94088076895422545</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.65386837721389601</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>-1.961605131641688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.4</v>
       </c>
@@ -779,8 +5149,16 @@
         <f t="shared" si="0"/>
         <v>0.95105651629515353</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.66758469502656437</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>-2.002754085079693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.41</v>
       </c>
@@ -788,8 +5166,16 @@
         <f t="shared" si="0"/>
         <v>0.96029368567694295</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.68107808642678069</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>-2.0432342592803421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.42</v>
       </c>
@@ -797,8 +5183,16 @@
         <f t="shared" si="0"/>
         <v>0.96858316112863108</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.69434404556928064</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>-2.0830321367078417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.43</v>
       </c>
@@ -806,8 +5200,16 @@
         <f t="shared" si="0"/>
         <v>0.97591676193874732</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.70737814255520437</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>-2.1221344276656131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.44</v>
       </c>
@@ -815,8 +5217,16 @@
         <f t="shared" si="0"/>
         <v>0.98228725072868861</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.72017602491137178</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>-2.1605280747341151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.45</v>
       </c>
@@ -824,8 +5234,16 @@
         <f t="shared" si="0"/>
         <v>0.98768834059513777</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.73273341904370248</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>-2.1982002571311074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.46</v>
       </c>
@@ -833,8 +5251,16 @@
         <f t="shared" si="0"/>
         <v>0.99211470131447788</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.7450461316642969</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>-2.2351383949928909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.47</v>
       </c>
@@ -842,8 +5268,16 @@
         <f t="shared" si="0"/>
         <v>0.99556196460308</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.75711005119169961</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>-2.2713301535750987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.48</v>
       </c>
@@ -851,8 +5285,16 @@
         <f t="shared" si="0"/>
         <v>0.99802672842827156</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.76892114912387866</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>-2.3067634473716359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.49</v>
       </c>
@@ -860,8 +5302,16 @@
         <f t="shared" si="0"/>
         <v>0.9995065603657316</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.78047548138346268</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>-2.3414264441503878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -869,8 +5319,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.79176918963478571</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>-2.3753075689043572</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.51</v>
       </c>
@@ -878,8 +5336,16 @@
         <f t="shared" si="0"/>
         <v>0.9995065603657316</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.80279850257230023</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>-2.4083955077169006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.52</v>
       </c>
@@ -887,8 +5353,16 @@
         <f t="shared" si="0"/>
         <v>0.99802672842827156</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.81355973717992858</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>-2.440679211539786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.53</v>
       </c>
@@ -896,8 +5370,16 @@
         <f t="shared" si="0"/>
         <v>0.99556196460308</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.82404929996093179</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>-2.4721478998827955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.54</v>
       </c>
@@ -905,8 +5387,16 @@
         <f t="shared" si="0"/>
         <v>0.99211470131447776</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.83426368813788476</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>-2.5027910644136542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.55000000000000004</v>
       </c>
@@ -914,8 +5404,16 @@
         <f t="shared" si="0"/>
         <v>0.98768834059513766</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.84419949082235868</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>-2.5325984724670763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.56000000000000005</v>
       </c>
@@ -923,8 +5421,16 @@
         <f t="shared" si="0"/>
         <v>0.98228725072868861</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.85385339015391737</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>-2.5615601704617523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.56999999999999995</v>
       </c>
@@ -932,8 +5438,16 @@
         <f t="shared" si="0"/>
         <v>0.97591676193874743</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.8632221624080505</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>-2.5896664872241515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.57999999999999996</v>
       </c>
@@ -941,8 +5455,16 @@
         <f t="shared" si="0"/>
         <v>0.96858316112863119</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.87230267907267067</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>-2.6169080372180122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.59</v>
       </c>
@@ -950,8 +5472,16 @@
         <f t="shared" si="0"/>
         <v>0.96029368567694307</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.88109190789281733</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>-2.6432757236784519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.6</v>
       </c>
@@ -959,8 +5489,16 @@
         <f t="shared" si="0"/>
         <v>0.95105651629515364</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.88958691388321609</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>-2.6687607416496482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.61</v>
       </c>
@@ -968,8 +5506,16 @@
         <f t="shared" si="0"/>
         <v>0.94088076895422545</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.8977848603083588</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>-2.6933545809250763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.62</v>
       </c>
@@ -977,8 +5523,16 @@
         <f t="shared" si="0"/>
         <v>0.92977648588825135</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.90568300962977322</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>-2.7170490288893197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.63</v>
       </c>
@@ -986,8 +5540,16 @@
         <f t="shared" si="0"/>
         <v>0.91775462568398125</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.91327872442016933</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>-2.7398361732605081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.64</v>
       </c>
@@ -995,1231 +5557,2328 @@
         <f t="shared" si="0"/>
         <v>0.90482705246601947</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.92056946824415387</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>-2.7617084047324614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">SIN(PI()*A67)</f>
+        <f t="shared" ref="B67:B130" si="3">SIN(PI()*A67)</f>
         <v>0.8910065241883679</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="4">SIN(1.8274*A67)</f>
+        <v>0.92755280650522287</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="5">-3*SIN(1.8274*A67)</f>
+        <v>-2.7826584195156685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87630668004386347</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>0.93422640725874495</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>-2.8026792217762351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86074202700394364</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>0.9405880419906677</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>-2.821764125972003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84432792550201496</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>0.94663558636168432</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>-2.8399067590850531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.69</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.82708057427456205</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>0.95236702091661452</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>-2.8571010627498437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.7</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80901699437494745</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>0.95778043175876015</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>-2.8733412952762807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.71</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.79015501237569052</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>0.9628740111890125</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>-2.8886220335670374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.72</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77051324277578925</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>0.9676460583094969</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>-2.9029381749284906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.73</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.7501110696304597</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>0.97209497959155322</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>-2.9162849387746599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.74</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.72896862742141144</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>0.97621928940786229</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>-2.9286578682235866</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.75</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70710678118654757</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>0.98001761052854175</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>-2.9400528315856254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.76</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68454710592868884</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>0.98348867458104317</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>-2.9504660237431297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.77</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.66131186532365183</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>0.98663132247370011</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>-2.9598939674211002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.78</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63742398974868986</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>0.98944450478278345</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>-2.9683335143483505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.79</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.61290705365297637</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>0.99192728210293457</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>-2.9757818463088039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.8</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58778525229247325</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>0.99407882536086134</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>-2.9822364760825839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.81</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.56208337785213047</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>0.9958984160921901</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>-2.9876952482765704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.82</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53582679497899699</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>0.99738544668138263</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>-2.992156340044148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.83</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50904141575037143</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>0.99853942056463674</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>-2.9956182616939104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4817536741017156</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>0.99935995239570363</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>-2.9980798571871108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45399049973954686</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>0.99984676817456708</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>-2.999540304523701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42577929156507288</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>0.99999970533893956</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>-2.9999991160168187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.39714789063478062</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>0.99981871281854684</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>-2.9994561384556406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.36812455268467814</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>0.99930385105218211</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>-2.9979115531565466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33873792024529131</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>0.99845529196752336</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>-2.9953658759025701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.9</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30901699437494751</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>0.99727331892372173</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>-2.991819956771165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.27899110603922911</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>0.99575832661677932</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>-2.987274979850338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24868988716485482</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>0.99391082094774885</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>-2.9817324628432464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21814324139654231</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>0.99173141885379767</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>-2.9751942565613931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.94</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18738131458572502</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>0.98922084810219446</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>-2.9676625443065836</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.95</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15643446504023098</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>0.98637994704728593</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>-2.9591398411418579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.96</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12533323356430454</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>0.98320966435054524</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>-2.9496289930516357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.4108313318514353E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>0.97971105866378605</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>-2.9391331759913584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2790519529313582E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>0.97588529827564652</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>-2.9276558948269393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1410759078128236E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>0.97173366072146361</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="5"/>
+        <v>-2.9152009821643907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>0.96725753235666545</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>-2.9017725970699964</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1.01</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.1410759078127994E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f t="shared" si="4"/>
+        <v>0.96245840789382631</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="5"/>
+        <v>-2.8873752236814791</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1.02</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.2790519529313346E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>0.95733788990353763</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>-2.8720136697106131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1.03</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.4108313318514103E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>0.95189768827926124</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="5"/>
+        <v>-2.8556930648377836</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1.04</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12533323356430429</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>0.9461396196663463</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="5"/>
+        <v>-2.8384188589990389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1.05</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.15643446504023073</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>0.94006560685539575</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="5"/>
+        <v>-2.8201968205661871</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1.06</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.18738131458572477</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f t="shared" si="4"/>
+        <v>0.93367767814019065</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="5"/>
+        <v>-2.8010330344205721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1.07</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.21814324139654251</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" si="4"/>
+        <v>0.92697796664038179</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="5"/>
+        <v>-2.7809338999211453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1.08</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.24868988716485502</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f t="shared" si="4"/>
+        <v>0.91996870958917742</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="5"/>
+        <v>-2.7599061287675322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1.0900000000000001</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.27899110603922928</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" si="4"/>
+        <v>0.91265224758626484</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="5"/>
+        <v>-2.7379567427587945</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1.1000000000000001</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.30901699437494773</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="4"/>
+        <v>0.90503102381621403</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="5"/>
+        <v>-2.7150930714486421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1.1100000000000001</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.33873792024529148</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" si="4"/>
+        <v>0.89710758323262629</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="5"/>
+        <v>-2.6913227496978789</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1.1200000000000001</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.36812455268467831</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" si="4"/>
+        <v>0.88888457170829738</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>-2.6666537151248919</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1.1299999999999999</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.39714789063478001</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" si="4"/>
+        <v>0.88036473515168268</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="5"/>
+        <v>-2.6410942054550479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.1399999999999999</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.42577929156507227</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="4"/>
+        <v>0.87155091858995559</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>-2.6146527557698667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1.1499999999999999</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.45399049973954625</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="4"/>
+        <v>0.86244606521897005</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="5"/>
+        <v>-2.5873381956569101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1.1599999999999999</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.48175367410171499</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" si="4"/>
+        <v>0.85305321542043755</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>-2.5591596462613126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.17</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.50904141575037087</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" si="4"/>
+        <v>0.84337550574665487</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>-2.5301265172399647</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1.18</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.53582679497899643</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" si="4"/>
+        <v>0.83341616787311434</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>-2.5002485036193431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1.19</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.56208337785213025</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" si="4"/>
+        <v>0.82317852751935328</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="5"/>
+        <v>-2.46953558255806</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1.2</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.58778525229247303</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="4"/>
+        <v>0.81266600333839456</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="5"/>
+        <v>-2.4379980100151837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1.21</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.61290705365297626</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" si="4"/>
+        <v>0.80188210577515862</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="5"/>
+        <v>-2.4056463173254761</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1.22</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.63742398974868963</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" si="4"/>
+        <v>0.79083043589421997</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>-2.3724913076826599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1.23</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.66131186532365172</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>0.77951468417730618</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>-2.3385440525319185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1.24</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.68454710592868873</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>0.76793862929093404</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>-2.3038158878728021</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.25</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.70710678118654746</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>0.75610613682460126</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>-2.2683184104738037</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1.26</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.72896862742141133</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>0.74402115799995217</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>-2.2320634739998564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.27</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.75011106963045948</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>0.73168772835134477</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>-2.1950631850540345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.28</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.77051324277578936</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" si="4"/>
+        <v>0.7191099663782673</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>-2.157329899134802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.29</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">SIN(PI()*A131)</f>
+        <f t="shared" ref="B131:B194" si="6">SIN(PI()*A131)</f>
         <v>-0.79015501237569041</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="7">SIN(1.8274*A131)</f>
+        <v>0.70629207217004764</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="8">-3*SIN(1.8274*A131)</f>
+        <v>-2.1188762165101429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1.3</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.80901699437494734</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" si="7"/>
+        <v>0.69323832600332014</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="8"/>
+        <v>-2.0797149780099602</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1.31</v>
       </c>
       <c r="B133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.82708057427456161</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="7"/>
+        <v>0.67995308691271128</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="8"/>
+        <v>-2.0398592607381341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1.32</v>
       </c>
       <c r="B134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.8443279255020153</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="7"/>
+        <v>0.66644079123522981</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="8"/>
+        <v>-1.9993223737056893</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1.33</v>
       </c>
       <c r="B135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.86074202700394375</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" si="7"/>
+        <v>0.65270595112884111</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="8"/>
+        <v>-1.9581178533865233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1.34</v>
       </c>
       <c r="B136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.87630668004386358</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="7"/>
+        <v>0.63875315306572411</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="8"/>
+        <v>-1.9162594591971724</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1.35</v>
       </c>
       <c r="B137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.89100652418836779</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" si="7"/>
+        <v>0.62458705630071043</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="8"/>
+        <v>-1.8737611689021314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1.36</v>
       </c>
       <c r="B138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.9048270524660198</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="7"/>
+        <v>0.61021239131542093</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="8"/>
+        <v>-1.8306371739462628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1.37</v>
       </c>
       <c r="B139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.91775462568398125</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" si="7"/>
+        <v>0.59563395823861676</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="8"/>
+        <v>-1.7869018747158503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1.38</v>
       </c>
       <c r="B140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.92977648588825113</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" si="7"/>
+        <v>0.58085662524329529</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="8"/>
+        <v>-1.742569875729886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1.39</v>
       </c>
       <c r="B141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.94088076895422512</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="7"/>
+        <v>0.56588532692105808</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="8"/>
+        <v>-1.6976559807631744</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1.4</v>
       </c>
       <c r="B142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.95105651629515353</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" si="7"/>
+        <v>0.55072506263430809</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="8"/>
+        <v>-1.6521751879029243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1.41</v>
       </c>
       <c r="B143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.96029368567694295</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="7"/>
+        <v>0.53538089484681084</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="8"/>
+        <v>-1.6061426845404325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1.42</v>
       </c>
       <c r="B144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.96858316112863097</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" si="7"/>
+        <v>0.51985794743318903</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="8"/>
+        <v>-1.5595738422995671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1.43</v>
       </c>
       <c r="B145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.97591676193874721</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="7"/>
+        <v>0.50416140396790621</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="8"/>
+        <v>-1.5124842119037187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1.44</v>
       </c>
       <c r="B146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.98228725072868872</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" si="7"/>
+        <v>0.48829650599431818</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="8"/>
+        <v>-1.4648895179829546</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1.45</v>
       </c>
       <c r="B147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.98768834059513766</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" si="7"/>
+        <v>0.47226855127436462</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="8"/>
+        <v>-1.416805653823094</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1.46</v>
       </c>
       <c r="B148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.99211470131447776</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" si="7"/>
+        <v>0.45608289201949054</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="8"/>
+        <v>-1.3682486760584716</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1.47</v>
       </c>
       <c r="B149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.99556196460308</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" si="7"/>
+        <v>0.43974493310338086</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="8"/>
+        <v>-1.3192347993101425</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1.48</v>
       </c>
       <c r="B150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.99802672842827156</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" si="7"/>
+        <v>0.42326013025711373</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="8"/>
+        <v>-1.2697803907713412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1.49</v>
       </c>
       <c r="B151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.9995065603657316</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" si="7"/>
+        <v>0.40663398824732866</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="8"/>
+        <v>-1.219901964741986</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1.5</v>
       </c>
       <c r="B152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <f t="shared" si="7"/>
+        <v>0.38987205903802252</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="8"/>
+        <v>-1.1696161771140676</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1.51</v>
       </c>
       <c r="B153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.9995065603657316</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" si="7"/>
+        <v>0.37297993993658124</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="8"/>
+        <v>-1.1189398198097438</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1.52</v>
       </c>
       <c r="B154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.99802672842827156</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" si="7"/>
+        <v>0.35596327172467301</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="8"/>
+        <v>-1.067889815174019</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1.53</v>
       </c>
       <c r="B155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.99556196460308</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" si="7"/>
+        <v>0.3388277367746248</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="8"/>
+        <v>-1.0164832103238743</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.54</v>
       </c>
       <c r="B156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.99211470131447788</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" si="7"/>
+        <v>0.32157905715190643</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="8"/>
+        <v>-0.96473717145571936</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1.55</v>
       </c>
       <c r="B157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.98768834059513777</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="7"/>
+        <v>0.30422299270436415</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="8"/>
+        <v>-0.91266897811309244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1.56</v>
       </c>
       <c r="B158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.98228725072868872</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="7"/>
+        <v>0.28676533913883501</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="8"/>
+        <v>-0.86029601741650508</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1.57</v>
       </c>
       <c r="B159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.97591676193874732</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="7"/>
+        <v>0.26921192608578953</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="8"/>
+        <v>-0.80763577825736865</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1.58</v>
       </c>
       <c r="B160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.96858316112863108</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <f t="shared" si="7"/>
+        <v>0.25156861515264173</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="8"/>
+        <v>-0.75470584545792518</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1.59</v>
       </c>
       <c r="B161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.96029368567694307</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f t="shared" si="7"/>
+        <v>0.23384129796638592</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="8"/>
+        <v>-0.7015238938991577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1.6</v>
       </c>
       <c r="B162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.95105651629515364</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <f t="shared" si="7"/>
+        <v>0.21603589420620556</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="8"/>
+        <v>-0.64810768261861673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1.61</v>
       </c>
       <c r="B163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.94088076895422534</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" si="7"/>
+        <v>0.19815834962671833</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="8"/>
+        <v>-0.59447504888015501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1.62</v>
       </c>
       <c r="B164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.92977648588825124</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="7"/>
+        <v>0.18021463407250868</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="8"/>
+        <v>-0.54064390221752601</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1.63</v>
       </c>
       <c r="B165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.91775462568398147</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" si="7"/>
+        <v>0.16221073948462114</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="8"/>
+        <v>-0.4866322184538634</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1.64</v>
       </c>
       <c r="B166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.90482705246601991</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="7"/>
+        <v>0.14415267789967021</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="8"/>
+        <v>-0.43245803369901059</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.65</v>
       </c>
       <c r="B167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.8910065241883679</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <f t="shared" si="7"/>
+        <v>0.12604647944224656</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="8"/>
+        <v>-0.37813943832673969</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1.66</v>
       </c>
       <c r="B168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.87630668004386381</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f t="shared" si="7"/>
+        <v>0.10789819031127451</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="8"/>
+        <v>-0.32369457093382353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1.67</v>
       </c>
       <c r="B169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.86074202700394398</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <f t="shared" si="7"/>
+        <v>8.9713870761008355E-2</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="8"/>
+        <v>-0.26914161228302508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1.68</v>
       </c>
       <c r="B170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.84432792550201552</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <f t="shared" si="7"/>
+        <v>7.149959307733196E-2</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="8"/>
+        <v>-0.2144987792319959</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1.69</v>
       </c>
       <c r="B171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.82708057427456183</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f t="shared" si="7"/>
+        <v>5.3261439550043581E-2</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="8"/>
+        <v>-0.15978431865013074</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1.7</v>
       </c>
       <c r="B172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.80901699437494756</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <f t="shared" si="7"/>
+        <v>3.5005500441795408E-2</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="8"/>
+        <v>-0.10501650132538623</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1.71</v>
       </c>
       <c r="B173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.79015501237569064</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <f t="shared" si="7"/>
+        <v>1.673787195437525E-2</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="8"/>
+        <v>-5.0213615863125755E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1.72</v>
       </c>
       <c r="B174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.77051324277578959</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <f t="shared" si="7"/>
+        <v>-1.5353458069976564E-3</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="8"/>
+        <v>4.6060374209929691E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1.73</v>
       </c>
       <c r="B175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.75011106963045948</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <f t="shared" si="7"/>
+        <v>-1.9808050870677711E-2</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="8"/>
+        <v>5.9424152612033133E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.74</v>
       </c>
       <c r="B176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.72896862742141155</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <f t="shared" si="7"/>
+        <v>-3.8074141436225672E-2</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="8"/>
+        <v>0.11422242430867702</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1.75</v>
       </c>
       <c r="B177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.70710678118654768</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <f t="shared" si="7"/>
+        <v>-5.6327517911979784E-2</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="8"/>
+        <v>0.16898255373593934</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1.76</v>
       </c>
       <c r="B178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.68454710592868895</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <f t="shared" si="7"/>
+        <v>-7.4562084951891983E-2</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="8"/>
+        <v>0.22368625485567595</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1.77</v>
       </c>
       <c r="B179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.66131186532365227</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <f t="shared" si="7"/>
+        <v>-9.2771753490943701E-2</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="8"/>
+        <v>0.27831526047283112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1.78</v>
       </c>
       <c r="B180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.63742398974868963</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <f t="shared" si="7"/>
+        <v>-0.1109504427784687</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="8"/>
+        <v>0.33285132833540609</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1.79</v>
       </c>
       <c r="B181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.61290705365297649</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <f t="shared" si="7"/>
+        <v>-0.12909208240869549</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="8"/>
+        <v>0.38727624722608645</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1.8</v>
       </c>
       <c r="B182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.58778525229247336</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f t="shared" si="7"/>
+        <v>-0.14719061434783526</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="8"/>
+        <v>0.44157184304350577</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1.81</v>
       </c>
       <c r="B183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.56208337785213092</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <f t="shared" si="7"/>
+        <v>-0.1652399949570425</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="8"/>
+        <v>0.49571998487112751</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1.82</v>
       </c>
       <c r="B184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.53582679497899632</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <f t="shared" si="7"/>
+        <v>-0.18323419701056418</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="8"/>
+        <v>0.5497025910316925</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1.83</v>
       </c>
       <c r="B185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.50904141575037121</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <f t="shared" si="7"/>
+        <v>-0.20116721170841081</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="8"/>
+        <v>0.60350163512523247</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.84</v>
       </c>
       <c r="B186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.48175367410171532</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <f t="shared" si="7"/>
+        <v>-0.21903305068287207</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="8"/>
+        <v>0.65709915204861624</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1.85</v>
       </c>
       <c r="B187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.45399049973954697</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <f t="shared" si="7"/>
+        <v>-0.23682574799821365</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="8"/>
+        <v>0.71047724399464096</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1.86</v>
       </c>
       <c r="B188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.42577929156507222</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <f t="shared" si="7"/>
+        <v>-0.2545393621428792</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="8"/>
+        <v>0.7636180864286376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1.87</v>
       </c>
       <c r="B189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.39714789063478034</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <f t="shared" si="7"/>
+        <v>-0.27216797801353881</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="8"/>
+        <v>0.81650393404061639</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1.88</v>
       </c>
       <c r="B190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.3681245526846787</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <f t="shared" si="7"/>
+        <v>-0.2897057088903161</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="8"/>
+        <v>0.86911712667094831</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1.89</v>
       </c>
       <c r="B191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.33873792024529226</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f t="shared" si="7"/>
+        <v>-0.30714669840254344</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="8"/>
+        <v>0.92144009520763026</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1.9</v>
       </c>
       <c r="B192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.30901699437494762</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <f t="shared" si="7"/>
+        <v>-0.32448512248437461</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="8"/>
+        <v>0.97345536745312389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1.91</v>
       </c>
       <c r="B193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.27899110603922966</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <f t="shared" si="7"/>
+        <v>-0.34171519131961586</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="8"/>
+        <v>1.0251455739588475</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1.92</v>
       </c>
       <c r="B194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.24868988716485535</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <f t="shared" si="7"/>
+        <v>-0.3588311512751165</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="8"/>
+        <v>1.0764934538253494</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1.93</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B201" si="3">SIN(PI()*A195)</f>
+        <f t="shared" ref="B195:B201" si="9">SIN(PI()*A195)</f>
         <v>-0.21814324139654331</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <f t="shared" ref="C195:C202" si="10">SIN(1.8274*A195)</f>
+        <v>-0.37582728682208033</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D202" si="11">-3*SIN(1.8274*A195)</f>
+        <v>1.1274818604662409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1.94</v>
       </c>
       <c r="B196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.18738131458572468</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <f t="shared" si="10"/>
+        <v>-0.39269792244464957</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="11"/>
+        <v>1.1780937673339487</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1.95</v>
       </c>
       <c r="B197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.15643446504023112</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <f t="shared" si="10"/>
+        <v>-0.40943742453512938</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="11"/>
+        <v>1.2283122736053882</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1.96</v>
       </c>
       <c r="B198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.12533323356430465</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <f t="shared" si="10"/>
+        <v>-0.42604020327521575</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="11"/>
+        <v>1.2781206098256472</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1.97</v>
       </c>
       <c r="B199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-9.4108313318514908E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <f t="shared" si="10"/>
+        <v>-0.44250071450260436</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="11"/>
+        <v>1.3275021435078131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1.98</v>
       </c>
       <c r="B200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-6.2790519529313263E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <f t="shared" si="10"/>
+        <v>-0.45881346156235053</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="11"/>
+        <v>1.3764403846870517</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1.99</v>
       </c>
       <c r="B201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-3.1410759078128361E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <f t="shared" si="10"/>
+        <v>-0.47497299714236607</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="11"/>
+        <v>1.4249189914270981</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2</v>
       </c>
       <c r="B202">
         <v>0</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="10"/>
+        <v>-0.49097392509243803</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="11"/>
+        <v>1.472921775277314</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>